--- a/excelData/L_1030-2.1.xlsx
+++ b/excelData/L_1030-2.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="T_5.5t_t_200_00036_00_000" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="32">
   <si>
     <t>어댑터1</t>
   </si>
@@ -45,14 +45,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>telesopableLoads</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -116,15 +108,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>workingArea(SlewingGear)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_200_10048_00_000 / 10050_00_000 / 10052_00_000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -133,14 +117,6 @@
   </si>
   <si>
     <t>플라이집각도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_200_20048_00_000 / 20050_00_000 / 20052_00_000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -153,6 +129,28 @@
   </si>
   <si>
     <t>t_200_20181_00_000 / 20184_00_000 / 20187_00_000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telescopableLoads: x</t>
+  </si>
+  <si>
+    <t>telescopableLoads: o</t>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optional</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +668,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,7 +678,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -721,7 +719,7 @@
     </row>
     <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -803,7 +801,7 @@
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -926,7 +924,7 @@
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -1020,7 +1018,7 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1061,7 +1059,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -1102,7 +1100,7 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -1143,7 +1141,7 @@
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>5.5</v>
@@ -1184,31 +1182,31 @@
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -1220,48 +1218,48 @@
         <v>4</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1850,7 +1848,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1862,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1874,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -1915,7 +1913,7 @@
     </row>
     <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1997,7 +1995,7 @@
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2120,7 +2118,7 @@
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -2214,7 +2212,7 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -2255,7 +2253,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -2296,7 +2294,7 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -2337,7 +2335,7 @@
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>2.2999999999999998</v>
@@ -2378,16 +2376,16 @@
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -2396,13 +2394,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -2419,43 +2417,43 @@
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3044,7 +3042,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3058,7 +3056,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="N12" sqref="N12:Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3068,7 +3066,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -3109,7 +3107,7 @@
     </row>
     <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -3191,7 +3189,7 @@
     </row>
     <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -3314,7 +3312,7 @@
     </row>
     <row r="7" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -3408,7 +3406,7 @@
     </row>
     <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -3449,7 +3447,7 @@
     </row>
     <row r="10" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -3490,7 +3488,7 @@
     </row>
     <row r="11" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -3531,7 +3529,7 @@
     </row>
     <row r="12" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>5.5</v>
@@ -3572,16 +3570,16 @@
     </row>
     <row r="13" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -3590,13 +3588,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -3613,43 +3611,43 @@
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4017,7 +4015,7 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4028,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:V14"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4041,7 +4039,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -4109,7 +4107,7 @@
     </row>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -4245,7 +4243,7 @@
     </row>
     <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -4449,7 +4447,7 @@
     </row>
     <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -4606,7 +4604,7 @@
     </row>
     <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>8.6</v>
@@ -4674,7 +4672,7 @@
     </row>
     <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -4742,7 +4740,7 @@
     </row>
     <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -4810,7 +4808,7 @@
     </row>
     <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>5.5</v>
@@ -4878,16 +4876,16 @@
     </row>
     <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -4896,13 +4894,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -4946,70 +4944,70 @@
     </row>
     <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -6050,32 +6048,6 @@
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6084,10 +6056,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S35" sqref="A1:U38"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6097,7 +6069,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -6162,7 +6134,7 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -6292,7 +6264,7 @@
     </row>
     <row r="4" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -6487,7 +6459,7 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -6637,7 +6609,7 @@
     </row>
     <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>15</v>
@@ -6702,7 +6674,7 @@
     </row>
     <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -6767,7 +6739,7 @@
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -6832,7 +6804,7 @@
     </row>
     <row r="12" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>5.5</v>
@@ -6897,16 +6869,16 @@
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -6915,13 +6887,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -6962,67 +6934,67 @@
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -8028,31 +8000,6 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8064,7 +8011,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="A1:V35"/>
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8074,7 +8021,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -8142,7 +8089,7 @@
     </row>
     <row r="2" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -8278,7 +8225,7 @@
     </row>
     <row r="4" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -8482,7 +8429,7 @@
     </row>
     <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -8639,7 +8586,7 @@
     </row>
     <row r="9" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>8.6</v>
@@ -8707,7 +8654,7 @@
     </row>
     <row r="10" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -8775,7 +8722,7 @@
     </row>
     <row r="11" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -8843,7 +8790,7 @@
     </row>
     <row r="12" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>2.2999999999999998</v>
@@ -8911,16 +8858,16 @@
     </row>
     <row r="13" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -8929,13 +8876,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -8979,70 +8926,70 @@
     </row>
     <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -10000,7 +9947,7 @@
       <c r="T35" s="17"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10014,7 +9961,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10024,7 +9971,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2">
         <v>9.1999999999999993</v>
@@ -10089,7 +10036,7 @@
     </row>
     <row r="2" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -10219,7 +10166,7 @@
     </row>
     <row r="4" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -10414,7 +10361,7 @@
     </row>
     <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -10564,7 +10511,7 @@
     </row>
     <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>15</v>
@@ -10629,7 +10576,7 @@
     </row>
     <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4">
         <v>0</v>
@@ -10694,7 +10641,7 @@
     </row>
     <row r="11" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5">
         <v>360</v>
@@ -10759,7 +10706,7 @@
     </row>
     <row r="12" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>2.2999999999999998</v>
@@ -10824,16 +10771,16 @@
     </row>
     <row r="13" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>4</v>
@@ -10842,13 +10789,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
@@ -10889,67 +10836,67 @@
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -11881,7 +11828,7 @@
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
       <c r="U36" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/excelData/L_1030-2.1.xlsx
+++ b/excelData/L_1030-2.1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Back File\platcube\Crigging\excelConvForRigging\excelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\sesia\dev\criggingAlgorithme\excelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="T_5.5t_t_200_00036_00_000" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="34">
   <si>
     <t>어댑터1</t>
   </si>
@@ -132,25 +132,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>telescopableLoads: x</t>
-  </si>
-  <si>
-    <t>telescopableLoads: o</t>
-  </si>
-  <si>
-    <t>optional</t>
+    <t>telescopableLoads</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>optional</t>
+    <t>telescopableLoads</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>optional</t>
+    <t>telescopableLoads</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>optional</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_200_10048_00_000 / 10050_00_000 / 10052_00_000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_200_20048_00_000 / 20050_00_000 / 20052_00_000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -665,10 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1226,40 +1237,40 @@
         <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1853,16 +1864,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2420,40 +2436,40 @@
         <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -3047,16 +3063,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:Y19"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3611,43 +3632,43 @@
     </row>
     <row r="14" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -4020,16 +4041,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V37"/>
+  <sheetPr codeName="Sheet4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="V38" sqref="A38:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4944,70 +4970,70 @@
     </row>
     <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -6048,18 +6074,49 @@
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
     </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U37"/>
+  <sheetPr codeName="Sheet5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6937,64 +6994,64 @@
         <v>28</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -8000,18 +8057,48 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8926,70 +9013,70 @@
     </row>
     <row r="14" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -9952,16 +10039,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10836,67 +10928,67 @@
     </row>
     <row r="14" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -11833,6 +11925,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>